--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag2-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag2-Notch2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H2">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I2">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J2">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N2">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O2">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P2">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q2">
-        <v>33.90056170541666</v>
+        <v>16.83055044919111</v>
       </c>
       <c r="R2">
-        <v>305.10505534875</v>
+        <v>151.47495404272</v>
       </c>
       <c r="S2">
-        <v>0.009576267825654466</v>
+        <v>0.005293609468533161</v>
       </c>
       <c r="T2">
-        <v>0.0101617978787469</v>
+        <v>0.005821441227434241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H3">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I3">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J3">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>63.763683</v>
       </c>
       <c r="O3">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P3">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q3">
-        <v>398.3830928900833</v>
+        <v>255.4270764844516</v>
       </c>
       <c r="R3">
-        <v>3585.44783601075</v>
+        <v>2298.843688360065</v>
       </c>
       <c r="S3">
-        <v>0.1125356927085503</v>
+        <v>0.08033790663470676</v>
       </c>
       <c r="T3">
-        <v>0.119416560216235</v>
+        <v>0.0883484897382575</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H4">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I4">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J4">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N4">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O4">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P4">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q4">
-        <v>863.2939689319443</v>
+        <v>767.6498365170678</v>
       </c>
       <c r="R4">
-        <v>7769.645720387499</v>
+        <v>6908.84852865361</v>
       </c>
       <c r="S4">
-        <v>0.2438642265164472</v>
+        <v>0.2414441794623529</v>
       </c>
       <c r="T4">
-        <v>0.2587750285218999</v>
+        <v>0.2655188503801068</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H5">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I5">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J5">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N5">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O5">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P5">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q5">
-        <v>337.2980168221666</v>
+        <v>238.890899152675</v>
       </c>
       <c r="R5">
-        <v>2023.788100933</v>
+        <v>1433.34539491605</v>
       </c>
       <c r="S5">
-        <v>0.09528031347147475</v>
+        <v>0.07513688453141343</v>
       </c>
       <c r="T5">
-        <v>0.06740408023586172</v>
+        <v>0.05508591191098191</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H6">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I6">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J6">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N6">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O6">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P6">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q6">
-        <v>1055.07826393375</v>
+        <v>538.1377972381523</v>
       </c>
       <c r="R6">
-        <v>9495.70437540375</v>
+        <v>4843.24017514337</v>
       </c>
       <c r="S6">
-        <v>0.2980396643646692</v>
+        <v>0.169257170015635</v>
       </c>
       <c r="T6">
-        <v>0.3162629621750737</v>
+        <v>0.1861339929635747</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.972651</v>
       </c>
       <c r="I7">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J7">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N7">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O7">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P7">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q7">
-        <v>1.189288273638333</v>
+        <v>0.9209001185671112</v>
       </c>
       <c r="R7">
-        <v>10.703594462745</v>
+        <v>8.288101067104</v>
       </c>
       <c r="S7">
-        <v>0.0003359514550005578</v>
+        <v>0.0002896450476730819</v>
       </c>
       <c r="T7">
-        <v>0.0003564928263222724</v>
+        <v>0.0003185258814178186</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.972651</v>
       </c>
       <c r="I8">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J8">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>63.763683</v>
       </c>
       <c r="O8">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P8">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q8">
         <v>13.97594367040367</v>
@@ -948,10 +948,10 @@
         <v>125.783493033633</v>
       </c>
       <c r="S8">
-        <v>0.003947939885688123</v>
+        <v>0.004395767563792939</v>
       </c>
       <c r="T8">
-        <v>0.004189332199787768</v>
+        <v>0.004834074495709484</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.972651</v>
       </c>
       <c r="I9">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J9">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N9">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O9">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P9">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q9">
-        <v>30.28579298700555</v>
+        <v>42.00271569255577</v>
       </c>
       <c r="R9">
-        <v>272.57213688305</v>
+        <v>378.024441233002</v>
       </c>
       <c r="S9">
-        <v>0.008555163996281293</v>
+        <v>0.01321085570941061</v>
       </c>
       <c r="T9">
-        <v>0.009078259811911816</v>
+        <v>0.01452812500310084</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.972651</v>
       </c>
       <c r="I10">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J10">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N10">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O10">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P10">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q10">
-        <v>11.83297727081533</v>
+        <v>13.071150466435</v>
       </c>
       <c r="R10">
-        <v>70.99786362489199</v>
+        <v>78.42690279861</v>
       </c>
       <c r="S10">
-        <v>0.003342592388435374</v>
+        <v>0.004111188524857038</v>
       </c>
       <c r="T10">
-        <v>0.00236464761016273</v>
+        <v>0.003014079840308416</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.972651</v>
       </c>
       <c r="I11">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J11">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N11">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O11">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P11">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q11">
-        <v>37.013906081285</v>
+        <v>29.44473876704823</v>
       </c>
       <c r="R11">
-        <v>333.125154731565</v>
+        <v>265.002648903434</v>
       </c>
       <c r="S11">
-        <v>0.01045572875718371</v>
+        <v>0.009261072500645581</v>
       </c>
       <c r="T11">
-        <v>0.01109503245313015</v>
+        <v>0.01018450446448493</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.780015</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H12">
-        <v>5.340045</v>
+        <v>9.075797</v>
       </c>
       <c r="I12">
-        <v>0.07210844143184338</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J12">
-        <v>0.07331683269997644</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N12">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O12">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P12">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q12">
-        <v>3.219450829975</v>
+        <v>4.236888599854222</v>
       </c>
       <c r="R12">
-        <v>28.975057469775</v>
+        <v>38.131997398688</v>
       </c>
       <c r="S12">
-        <v>0.0009094339989782548</v>
+        <v>0.001332602500257884</v>
       </c>
       <c r="T12">
-        <v>0.0009650403111032407</v>
+        <v>0.00146547779561321</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.780015</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H13">
-        <v>5.340045</v>
+        <v>9.075797</v>
       </c>
       <c r="I13">
-        <v>0.07210844143184338</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J13">
-        <v>0.07331683269997644</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>63.763683</v>
       </c>
       <c r="O13">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P13">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q13">
-        <v>37.83343739841499</v>
+        <v>64.30069365337232</v>
       </c>
       <c r="R13">
-        <v>340.500936585735</v>
+        <v>578.7062428803509</v>
       </c>
       <c r="S13">
-        <v>0.01068723086185515</v>
+        <v>0.02022410151018566</v>
       </c>
       <c r="T13">
-        <v>0.01134068949186434</v>
+        <v>0.02224066943718713</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.780015</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H14">
-        <v>5.340045</v>
+        <v>9.075797</v>
       </c>
       <c r="I14">
-        <v>0.07210844143184338</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J14">
-        <v>0.07331683269997644</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N14">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O14">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P14">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q14">
-        <v>81.98485054441666</v>
+        <v>193.2466113237215</v>
       </c>
       <c r="R14">
-        <v>737.8636548997499</v>
+        <v>1739.219501913494</v>
       </c>
       <c r="S14">
-        <v>0.02315917043740729</v>
+        <v>0.06078066754580595</v>
       </c>
       <c r="T14">
-        <v>0.02457521169091777</v>
+        <v>0.06684117632504054</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.780015</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H15">
-        <v>5.340045</v>
+        <v>9.075797</v>
       </c>
       <c r="I15">
-        <v>0.07210844143184338</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J15">
-        <v>0.07331683269997644</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N15">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O15">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P15">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q15">
-        <v>32.03234181318999</v>
+        <v>60.13790994444499</v>
       </c>
       <c r="R15">
-        <v>192.19405087914</v>
+        <v>360.8274596666699</v>
       </c>
       <c r="S15">
-        <v>0.009048531022924165</v>
+        <v>0.01891480676527776</v>
       </c>
       <c r="T15">
-        <v>0.006401195471176319</v>
+        <v>0.01386721562629761</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.780015</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H16">
-        <v>5.340045</v>
+        <v>9.075797</v>
       </c>
       <c r="I16">
-        <v>0.07210844143184338</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J16">
-        <v>0.07331683269997644</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N16">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O16">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P16">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q16">
-        <v>100.198121259075</v>
+        <v>135.4697165224665</v>
       </c>
       <c r="R16">
-        <v>901.783091331675</v>
+        <v>1219.227448702198</v>
       </c>
       <c r="S16">
-        <v>0.02830407511067851</v>
+        <v>0.04260845634536553</v>
       </c>
       <c r="T16">
-        <v>0.03003469573491478</v>
+        <v>0.04685699349010999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.22057</v>
+        <v>3.090697</v>
       </c>
       <c r="H17">
-        <v>2.44114</v>
+        <v>6.181394</v>
       </c>
       <c r="I17">
-        <v>0.04944531386447028</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J17">
-        <v>0.03351594471155589</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N17">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O17">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P17">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q17">
-        <v>2.20760223905</v>
+        <v>4.328525269429334</v>
       </c>
       <c r="R17">
-        <v>13.2456134343</v>
+        <v>25.971151616576</v>
       </c>
       <c r="S17">
-        <v>0.0006236059000249371</v>
+        <v>0.001361424418066933</v>
       </c>
       <c r="T17">
-        <v>0.0004411570511197125</v>
+        <v>0.0009981157195270809</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.22057</v>
+        <v>3.090697</v>
       </c>
       <c r="H18">
-        <v>2.44114</v>
+        <v>6.181394</v>
       </c>
       <c r="I18">
-        <v>0.04944531386447028</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J18">
-        <v>0.03351594471155589</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>63.763683</v>
       </c>
       <c r="O18">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P18">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q18">
-        <v>25.94267951977</v>
+        <v>65.691407919017</v>
       </c>
       <c r="R18">
-        <v>155.65607711862</v>
+        <v>394.148447514102</v>
       </c>
       <c r="S18">
-        <v>0.007328316543992351</v>
+        <v>0.02066151431060863</v>
       </c>
       <c r="T18">
-        <v>0.005184265440866079</v>
+        <v>0.01514779810687832</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.22057</v>
+        <v>3.090697</v>
       </c>
       <c r="H19">
-        <v>2.44114</v>
+        <v>6.181394</v>
       </c>
       <c r="I19">
-        <v>0.04944531386447028</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J19">
-        <v>0.03351594471155589</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N19">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O19">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P19">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q19">
-        <v>56.21764368783332</v>
+        <v>197.4262057244313</v>
       </c>
       <c r="R19">
-        <v>337.305862127</v>
+        <v>1184.557234346588</v>
       </c>
       <c r="S19">
-        <v>0.01588042160363043</v>
+        <v>0.06209524965415815</v>
       </c>
       <c r="T19">
-        <v>0.01123427466756685</v>
+        <v>0.04552455793012423</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.22057</v>
+        <v>3.090697</v>
       </c>
       <c r="H20">
-        <v>2.44114</v>
+        <v>6.181394</v>
       </c>
       <c r="I20">
-        <v>0.04944531386447028</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J20">
-        <v>0.03351594471155589</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N20">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O20">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P20">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q20">
-        <v>21.96482358122</v>
+        <v>61.438590302835</v>
       </c>
       <c r="R20">
-        <v>87.85929432487998</v>
+        <v>245.75436121134</v>
       </c>
       <c r="S20">
-        <v>0.006204647438729755</v>
+        <v>0.01932390175486197</v>
       </c>
       <c r="T20">
-        <v>0.002926232702628416</v>
+        <v>0.009444759889308043</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.22057</v>
+        <v>3.090697</v>
       </c>
       <c r="H21">
-        <v>2.44114</v>
+        <v>6.181394</v>
       </c>
       <c r="I21">
-        <v>0.04944531386447028</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J21">
-        <v>0.03351594471155589</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N21">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O21">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P21">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q21">
-        <v>68.70662374484999</v>
+        <v>138.3996952929327</v>
       </c>
       <c r="R21">
-        <v>412.2397424691</v>
+        <v>830.3981717575961</v>
       </c>
       <c r="S21">
-        <v>0.0194083223780928</v>
+        <v>0.04353000453885832</v>
       </c>
       <c r="T21">
-        <v>0.01373001484937484</v>
+        <v>0.031913620194216</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.283699333333333</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H22">
-        <v>6.851098</v>
+        <v>6.714331</v>
       </c>
       <c r="I22">
-        <v>0.09251270333430135</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J22">
-        <v>0.09406302865933586</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N22">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O22">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P22">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q22">
-        <v>4.130447054723334</v>
+        <v>3.134476505980444</v>
       </c>
       <c r="R22">
-        <v>37.17402349251</v>
+        <v>28.210288553824</v>
       </c>
       <c r="S22">
-        <v>0.001166773210999518</v>
+        <v>0.0009858676078981291</v>
       </c>
       <c r="T22">
-        <v>0.001238114237861065</v>
+        <v>0.001084169576831372</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.283699333333333</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H23">
-        <v>6.851098</v>
+        <v>6.714331</v>
       </c>
       <c r="I23">
-        <v>0.09251270333430135</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J23">
-        <v>0.09406302865933586</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>63.763683</v>
       </c>
       <c r="O23">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P23">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q23">
-        <v>48.53902678599266</v>
+        <v>47.57005260456366</v>
       </c>
       <c r="R23">
-        <v>436.851241073934</v>
+        <v>428.130473441073</v>
       </c>
       <c r="S23">
-        <v>0.01371135748541335</v>
+        <v>0.01496191593057738</v>
       </c>
       <c r="T23">
-        <v>0.01454972291363327</v>
+        <v>0.01645378541001502</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.283699333333333</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H24">
-        <v>6.851098</v>
+        <v>6.714331</v>
       </c>
       <c r="I24">
-        <v>0.09251270333430135</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J24">
-        <v>0.09406302865933586</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N24">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O24">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P24">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q24">
-        <v>105.1838038059889</v>
+        <v>142.9650435169291</v>
       </c>
       <c r="R24">
-        <v>946.6542342539</v>
+        <v>1286.685391652362</v>
       </c>
       <c r="S24">
-        <v>0.02971243618085245</v>
+        <v>0.04496591542357094</v>
       </c>
       <c r="T24">
-        <v>0.0315291694480521</v>
+        <v>0.04944951746669585</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.283699333333333</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H25">
-        <v>6.851098</v>
+        <v>6.714331</v>
       </c>
       <c r="I25">
-        <v>0.09251270333430135</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J25">
-        <v>0.09406302865933586</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N25">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O25">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P25">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q25">
-        <v>41.09641640316933</v>
+        <v>44.49039935723499</v>
       </c>
       <c r="R25">
-        <v>246.578498419016</v>
+        <v>266.94239614341</v>
       </c>
       <c r="S25">
-        <v>0.01160896074735207</v>
+        <v>0.01399329154487635</v>
       </c>
       <c r="T25">
-        <v>0.008212518338363279</v>
+        <v>0.01025905226431733</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.283699333333333</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H26">
-        <v>6.851098</v>
+        <v>6.714331</v>
       </c>
       <c r="I26">
-        <v>0.09251270333430135</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J26">
-        <v>0.09406302865933586</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N26">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O26">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P26">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q26">
-        <v>128.55081711143</v>
+        <v>100.2213378293949</v>
       </c>
       <c r="R26">
-        <v>1156.95735400287</v>
+        <v>901.992040464554</v>
       </c>
       <c r="S26">
-        <v>0.03631317570968396</v>
+        <v>0.03152200069060981</v>
       </c>
       <c r="T26">
-        <v>0.03853350372142616</v>
+        <v>0.03466509486246153</v>
       </c>
     </row>
   </sheetData>
